--- a/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
+++ b/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
@@ -341,9 +341,6 @@
     <t>Embankment Creslevel</t>
   </si>
   <si>
-    <t>Ew</t>
-  </si>
-  <si>
     <t>Embankment Crest Width</t>
   </si>
   <si>
@@ -393,6 +390,9 @@
   </si>
   <si>
     <t>Design Water Level</t>
+  </si>
+  <si>
+    <t>Ecw</t>
   </si>
 </sst>
 </file>
@@ -1981,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2012,7 +2012,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3">
         <v>-2.4</v>
@@ -2029,7 +2029,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="3">
         <v>-1.5</v>
@@ -2046,7 +2046,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3">
         <v>-2.5499999999999998</v>
@@ -2063,13 +2063,13 @@
         <v>92</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="3">
         <v>2.5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -2080,7 +2080,7 @@
         <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="3">
         <v>5.5</v>
@@ -2094,16 +2094,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="C7" s="3">
         <v>3.95</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -2131,7 +2131,7 @@
         <v>97</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="3">
         <v>1.5</v>
@@ -2148,7 +2148,7 @@
         <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="3">
         <v>1.8</v>
@@ -2165,7 +2165,7 @@
         <v>99</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="3">
         <v>0.8</v>
@@ -2182,7 +2182,7 @@
         <v>100</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="3">
         <v>0.7</v>
@@ -2196,16 +2196,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="3">
         <v>5.5</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="1">
         <v>12</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>95</v>
@@ -2222,7 +2222,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="1">
         <v>13</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>95</v>
@@ -2239,7 +2239,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" s="1">
         <v>14</v>
@@ -2247,16 +2247,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2150</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="E16" s="1">
         <v>15</v>
@@ -2264,16 +2264,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="3">
         <v>0.9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="1">
         <v>16</v>
@@ -2281,16 +2281,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="3">
         <v>12.25</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="1">
         <v>17</v>

--- a/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
+++ b/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
@@ -17,6 +17,9 @@
     <sheet name="Wing_Wall_Data" sheetId="8" r:id="rId8"/>
     <sheet name="Regulator_plan" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">Regulator_plan!$A$1:$E$19</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="124">
   <si>
     <t>parameters</t>
   </si>
@@ -393,6 +396,12 @@
   </si>
   <si>
     <t>Ecw</t>
+  </si>
+  <si>
+    <t>Theta</t>
+  </si>
+  <si>
+    <t>Flare Angle</t>
   </si>
 </sst>
 </file>
@@ -416,7 +425,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -439,11 +448,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -453,6 +486,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1979,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="145" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2263,16 +2305,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>0.9</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>114</v>
       </c>
       <c r="E17" s="1">
@@ -2292,8 +2334,25 @@
       <c r="D18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="3">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
+++ b/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Regulator_plan" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">Regulator_plan!$A$1:$E$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">Regulator_plan!$A$1:$E$22</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="130">
   <si>
     <t>parameters</t>
   </si>
@@ -402,6 +402,24 @@
   </si>
   <si>
     <t>Flare Angle</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Fr1</t>
+  </si>
+  <si>
+    <t>Incoming flow froude numer in Stiiling Basin</t>
+  </si>
+  <si>
+    <t>incoming flow depth in Stiiling Basin</t>
+  </si>
+  <si>
+    <t>conjugate depth after hydraulic jump</t>
   </si>
 </sst>
 </file>
@@ -476,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -489,9 +507,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,7 +820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1399,7 +1414,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2021,18 +2036,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="145" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="160" zoomScaleNormal="115" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2308,10 +2323,10 @@
       <c r="A17" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="3">
         <v>0.9</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -2339,7 +2354,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2353,6 +2368,54 @@
       </c>
       <c r="E19" s="3">
         <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2.54</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2.98</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
+++ b/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
@@ -335,12 +335,6 @@
     <t>Wp</t>
   </si>
   <si>
-    <t>width of Pier at Abutment</t>
-  </si>
-  <si>
-    <t>width of Abutment at Abutment</t>
-  </si>
-  <si>
     <t>Embankment Creslevel</t>
   </si>
   <si>
@@ -420,6 +414,12 @@
   </si>
   <si>
     <t>conjugate depth after hydraulic jump</t>
+  </si>
+  <si>
+    <t>width of Abutment at Appron Level</t>
+  </si>
+  <si>
+    <t>width of Pier at Appron Level</t>
   </si>
 </sst>
 </file>
@@ -987,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -998,7 +998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>14.923999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>78</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>65</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -2038,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="160" zoomScaleNormal="115" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="115" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2069,7 +2069,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3">
         <v>-2.4</v>
@@ -2086,7 +2086,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="3">
         <v>-1.5</v>
@@ -2103,7 +2103,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="3">
         <v>-2.5499999999999998</v>
@@ -2120,13 +2120,13 @@
         <v>92</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="3">
         <v>2.5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -2137,13 +2137,13 @@
         <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="3">
         <v>5.5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -2151,16 +2151,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="3">
         <v>3.95</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -2174,7 +2174,7 @@
         <v>95</v>
       </c>
       <c r="C8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>96</v>
@@ -2188,7 +2188,7 @@
         <v>97</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C9" s="3">
         <v>1.5</v>
@@ -2205,7 +2205,7 @@
         <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3">
         <v>1.8</v>
@@ -2222,13 +2222,13 @@
         <v>99</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C11" s="3">
         <v>0.8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -2239,13 +2239,13 @@
         <v>100</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C12" s="3">
         <v>0.7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="E12" s="1">
         <v>11</v>
@@ -2253,16 +2253,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3">
         <v>5.5</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E13" s="1">
         <v>12</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>95</v>
@@ -2279,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E14" s="1">
         <v>13</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>95</v>
@@ -2296,7 +2296,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E15" s="1">
         <v>14</v>
@@ -2304,16 +2304,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" s="3">
         <v>2.15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E16" s="1">
         <v>15</v>
@@ -2321,16 +2321,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" s="3">
         <v>0.9</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E17" s="1">
         <v>16</v>
@@ -2338,16 +2338,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C18" s="3">
         <v>12.25</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E18" s="3">
         <v>17</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>25</v>
@@ -2364,7 +2364,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E19" s="3">
         <v>18</v>
@@ -2372,16 +2372,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" s="3">
         <v>0.79</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E20" s="3">
         <v>19</v>
@@ -2389,16 +2389,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C21" s="3">
         <v>2.54</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E21" s="3">
         <v>20</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>95</v>
@@ -2415,7 +2415,7 @@
         <v>2.98</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
+++ b/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
@@ -2038,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="115" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="160" zoomScaleNormal="115" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
+++ b/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
@@ -2038,7 +2038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="160" zoomScaleNormal="115" zoomScaleSheetLayoutView="160" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="235" zoomScaleNormal="115" zoomScaleSheetLayoutView="235" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
+++ b/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
@@ -2038,7 +2038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="235" zoomScaleNormal="115" zoomScaleSheetLayoutView="235" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="235" zoomScaleNormal="115" zoomScaleSheetLayoutView="235" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2174,7 +2174,7 @@
         <v>95</v>
       </c>
       <c r="C8" s="3">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>96</v>

--- a/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
+++ b/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Regulator_plan" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">Regulator_plan!$A$1:$E$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">Regulator_plan!$A$1:$E$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="136">
   <si>
     <t>parameters</t>
   </si>
@@ -420,6 +420,24 @@
   </si>
   <si>
     <t>width of Pier at Appron Level</t>
+  </si>
+  <si>
+    <t>Tw</t>
+  </si>
+  <si>
+    <t>Tr</t>
+  </si>
+  <si>
+    <t>Wing wall thickness at Appron Level</t>
+  </si>
+  <si>
+    <t>Return Wall thickness at Appron Level</t>
+  </si>
+  <si>
+    <t>EL7</t>
+  </si>
+  <si>
+    <t>Avg Canal Banklevel</t>
   </si>
 </sst>
 </file>
@@ -435,12 +453,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -494,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -510,6 +534,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2036,10 +2066,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="235" zoomScaleNormal="115" zoomScaleSheetLayoutView="235" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="220" zoomScaleNormal="115" zoomScaleSheetLayoutView="220" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2078,7 +2108,7 @@
         <v>90</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2095,41 +2125,41 @@
         <v>14</v>
       </c>
       <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="8">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="3">
-        <v>-2.5499999999999998</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C5" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="1">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2146,7 +2176,7 @@
         <v>101</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2163,259 +2193,313 @@
         <v>118</v>
       </c>
       <c r="E7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C8" s="3">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="E8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C9" s="3">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C10" s="3">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="3">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C12" s="3">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C13" s="3">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="E13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="3">
         <v>3</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2.15</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C17" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>112</v>
+        <v>2.15</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="E17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>113</v>
+      <c r="A18" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C18" s="3">
-        <v>12.25</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="3">
-        <v>17</v>
+        <v>0.9</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C19" s="3">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="3">
-        <v>18</v>
+        <v>12.25</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="1">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3">
-        <v>0.79</v>
+        <v>11</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="3">
-        <v>19</v>
+        <v>121</v>
+      </c>
+      <c r="E20" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="3">
         <v>2.54</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="7">
         <v>2.98</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>125</v>
+      </c>
+      <c r="E23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="1">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
+++ b/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Regulator_plan" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">Regulator_plan!$A$1:$E$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">Regulator_plan!$A$1:$E$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="140">
   <si>
     <t>parameters</t>
   </si>
@@ -438,6 +438,18 @@
   </si>
   <si>
     <t>Avg Canal Banklevel</t>
+  </si>
+  <si>
+    <t>Wepa</t>
+  </si>
+  <si>
+    <t>Wepp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">width of Extended Part : Abutment </t>
+  </si>
+  <si>
+    <t>width of Extended Part:  Pier</t>
   </si>
 </sst>
 </file>
@@ -2066,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="220" zoomScaleNormal="115" zoomScaleSheetLayoutView="220" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="205" zoomScaleNormal="115" zoomScaleSheetLayoutView="205" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2272,7 +2284,7 @@
         <v>108</v>
       </c>
       <c r="C12" s="3">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>128</v>
@@ -2289,7 +2301,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="3">
-        <v>0.7</v>
+        <v>0.35</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>129</v>
@@ -2300,16 +2312,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="3">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="E14" s="1">
         <v>12</v>
@@ -2317,16 +2329,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C15" s="3">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="E15" s="1">
         <v>13</v>
@@ -2334,50 +2346,50 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C16" s="3">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E16" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>109</v>
+      <c r="A17" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C17" s="3">
-        <v>2.15</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>110</v>
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="E17" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>111</v>
+      <c r="A18" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C18" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>112</v>
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="E18" s="1">
         <v>16</v>
@@ -2385,33 +2397,33 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="3">
-        <v>12.25</v>
+        <v>2.15</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E19" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>120</v>
+      <c r="A20" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C20" s="3">
-        <v>11</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>121</v>
+        <v>0.9</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="E20" s="1">
         <v>18</v>
@@ -2419,16 +2431,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="3">
-        <v>0.79</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>126</v>
+        <v>12.25</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="E21" s="1">
         <v>19</v>
@@ -2436,70 +2448,104 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3">
-        <v>2.54</v>
+        <v>11</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E22" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2.98</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>125</v>
+      <c r="A23" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="E23" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>130</v>
+      <c r="A24" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="3">
-        <v>0.6</v>
+        <v>2.54</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E24" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>133</v>
+      <c r="A25" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2.98</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="E25" s="1">
         <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="1">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
+++ b/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
@@ -2081,7 +2081,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="205" zoomScaleNormal="115" zoomScaleSheetLayoutView="205" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
+++ b/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
@@ -2080,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="205" zoomScaleNormal="115" zoomScaleSheetLayoutView="205" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="205" zoomScaleNormal="115" zoomScaleSheetLayoutView="205" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2233,7 +2233,7 @@
         <v>95</v>
       </c>
       <c r="C9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>96</v>

--- a/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
+++ b/Xen Jakaria/Regulator_Drafting_programme/Chakbara_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Return_wall_data_MKS" sheetId="7" r:id="rId7"/>
     <sheet name="Wing_Wall_Data" sheetId="8" r:id="rId8"/>
     <sheet name="Regulator_plan" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Regulator_plan!$A$1:$E$27</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="155">
   <si>
     <t>parameters</t>
   </si>
@@ -450,6 +451,51 @@
   </si>
   <si>
     <t>width of Extended Part:  Pier</t>
+  </si>
+  <si>
+    <t>ComponentName</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Reinforcement_code</t>
+  </si>
+  <si>
+    <t>Operating_Deck_Slab</t>
+  </si>
+  <si>
+    <t>ODS</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>Head_Wall</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>Extended_Portion_Abutment</t>
+  </si>
+  <si>
+    <t>EXPA</t>
+  </si>
+  <si>
+    <t>Extended_Portion_Pier</t>
+  </si>
+  <si>
+    <t>EXPP</t>
   </si>
 </sst>
 </file>
@@ -846,6 +892,277 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>CONCATENATE(B2,"-",D2)</f>
+        <v>ODS-R1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C17" si="0">CONCATENATE(B3,"-",D3)</f>
+        <v>ODS-R2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ODS-R3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ODS-R4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>HW-R1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>HW-R2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>HW-R3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>HW-R4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EXPA-R1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EXPA-R2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EXPA-R3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EXPA-R4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EXPP-R1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EXPP-R2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EXPP-R3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EXPP-R4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -1882,7 +2199,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2080,7 +2397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="205" zoomScaleNormal="115" zoomScaleSheetLayoutView="205" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="205" zoomScaleNormal="115" zoomScaleSheetLayoutView="205" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
